--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Lama2-Dag1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Lama2-Dag1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.969292666666667</v>
+        <v>1.056197333333333</v>
       </c>
       <c r="H2">
-        <v>5.907878</v>
+        <v>3.168592</v>
       </c>
       <c r="I2">
-        <v>0.01927739905292307</v>
+        <v>0.01247237710445079</v>
       </c>
       <c r="J2">
-        <v>0.02250741773403226</v>
+        <v>0.01398563433468744</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>18.91686333333334</v>
+        <v>14.23612</v>
       </c>
       <c r="N2">
-        <v>56.75059</v>
+        <v>42.70836</v>
       </c>
       <c r="O2">
-        <v>0.1307094812119195</v>
+        <v>0.07600219901258977</v>
       </c>
       <c r="P2">
-        <v>0.1618499242031174</v>
+        <v>0.09845490883293605</v>
       </c>
       <c r="Q2">
-        <v>37.2528402386689</v>
+        <v>15.03615198101333</v>
       </c>
       <c r="R2">
-        <v>335.27556214802</v>
+        <v>135.32536782912</v>
       </c>
       <c r="S2">
-        <v>0.002519738829322723</v>
+        <v>0.0009479280868525372</v>
       </c>
       <c r="T2">
-        <v>0.003642823854261022</v>
+        <v>0.001376954353392433</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.969292666666667</v>
+        <v>1.056197333333333</v>
       </c>
       <c r="H3">
-        <v>5.907878</v>
+        <v>3.168592</v>
       </c>
       <c r="I3">
-        <v>0.01927739905292307</v>
+        <v>0.01247237710445079</v>
       </c>
       <c r="J3">
-        <v>0.02250741773403226</v>
+        <v>0.01398563433468744</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>92.437557</v>
       </c>
       <c r="O3">
-        <v>0.2129046609025076</v>
+        <v>0.1644984167819043</v>
       </c>
       <c r="P3">
-        <v>0.2636274194501123</v>
+        <v>0.2130948424892534</v>
       </c>
       <c r="Q3">
-        <v>60.67886770822734</v>
+        <v>32.54410040108266</v>
       </c>
       <c r="R3">
-        <v>546.109809374046</v>
+        <v>292.896903609744</v>
       </c>
       <c r="S3">
-        <v>0.004104248108444906</v>
+        <v>0.002051686287189027</v>
       </c>
       <c r="T3">
-        <v>0.005933572455708616</v>
+        <v>0.002980266545662515</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.969292666666667</v>
+        <v>1.056197333333333</v>
       </c>
       <c r="H4">
-        <v>5.907878</v>
+        <v>3.168592</v>
       </c>
       <c r="I4">
-        <v>0.01927739905292307</v>
+        <v>0.01247237710445079</v>
       </c>
       <c r="J4">
-        <v>0.02250741773403226</v>
+        <v>0.01398563433468744</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.973992333333332</v>
+        <v>5.407681</v>
       </c>
       <c r="N4">
-        <v>17.921977</v>
+        <v>16.223043</v>
       </c>
       <c r="O4">
-        <v>0.04127837818006743</v>
+        <v>0.02886992014387351</v>
       </c>
       <c r="P4">
-        <v>0.05111260727016254</v>
+        <v>0.03739872520410058</v>
       </c>
       <c r="Q4">
-        <v>11.76453929275622</v>
+        <v>5.711578251717333</v>
       </c>
       <c r="R4">
-        <v>105.880853634806</v>
+        <v>51.404204265456</v>
       </c>
       <c r="S4">
-        <v>0.0007957397684346322</v>
+        <v>0.0003600765310097706</v>
       </c>
       <c r="T4">
-        <v>0.001150412803305083</v>
+        <v>0.0005230448952880098</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.969292666666667</v>
+        <v>1.056197333333333</v>
       </c>
       <c r="H5">
-        <v>5.907878</v>
+        <v>3.168592</v>
       </c>
       <c r="I5">
-        <v>0.01927739905292307</v>
+        <v>0.01247237710445079</v>
       </c>
       <c r="J5">
-        <v>0.02250741773403226</v>
+        <v>0.01398563433468744</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>83.5363655</v>
+        <v>128.149857</v>
       </c>
       <c r="N5">
-        <v>167.072731</v>
+        <v>256.299714</v>
       </c>
       <c r="O5">
-        <v>0.5772095936007515</v>
+        <v>0.6841520677789258</v>
       </c>
       <c r="P5">
-        <v>0.4764833079049545</v>
+        <v>0.5908436890523912</v>
       </c>
       <c r="Q5">
-        <v>164.5075519791363</v>
+        <v>135.351537230448</v>
       </c>
       <c r="R5">
-        <v>987.045311874818</v>
+        <v>812.1092233826879</v>
       </c>
       <c r="S5">
-        <v>0.01112709967301724</v>
+        <v>0.008533002586128539</v>
       </c>
       <c r="T5">
-        <v>0.01072440885431033</v>
+        <v>0.008263323784044515</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.969292666666667</v>
+        <v>1.056197333333333</v>
       </c>
       <c r="H6">
-        <v>5.907878</v>
+        <v>3.168592</v>
       </c>
       <c r="I6">
-        <v>0.01927739905292307</v>
+        <v>0.01247237710445079</v>
       </c>
       <c r="J6">
-        <v>0.02250741773403226</v>
+        <v>0.01398563433468744</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.484752333333333</v>
+        <v>8.705771666666665</v>
       </c>
       <c r="N6">
-        <v>16.454257</v>
+        <v>26.117315</v>
       </c>
       <c r="O6">
-        <v>0.03789788610475406</v>
+        <v>0.04647739628270661</v>
       </c>
       <c r="P6">
-        <v>0.04692674117165327</v>
+        <v>0.06020783442131875</v>
       </c>
       <c r="Q6">
-        <v>10.80108254851622</v>
+        <v>9.195012818942219</v>
       </c>
       <c r="R6">
-        <v>97.20974293664599</v>
+        <v>82.75511537047998</v>
       </c>
       <c r="S6">
-        <v>0.0007305726737035723</v>
+        <v>0.0005796836132709163</v>
       </c>
       <c r="T6">
-        <v>0.00105619976644721</v>
+        <v>0.000842044756299972</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>168.19535</v>
       </c>
       <c r="I7">
-        <v>0.5488212317173889</v>
+        <v>0.6620593097549599</v>
       </c>
       <c r="J7">
-        <v>0.6407788047369568</v>
+        <v>0.7423861014276285</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>18.91686333333334</v>
+        <v>14.23612</v>
       </c>
       <c r="N7">
-        <v>56.75059</v>
+        <v>42.70836</v>
       </c>
       <c r="O7">
-        <v>0.1307094812119195</v>
+        <v>0.07600219901258977</v>
       </c>
       <c r="P7">
-        <v>0.1618499242031174</v>
+        <v>0.09845490883293605</v>
       </c>
       <c r="Q7">
-        <v>1060.576149750723</v>
+        <v>798.1497286806667</v>
       </c>
       <c r="R7">
-        <v>9545.185347756502</v>
+        <v>7183.347558126001</v>
       </c>
       <c r="S7">
-        <v>0.07173613847586657</v>
+        <v>0.05031796341813428</v>
       </c>
       <c r="T7">
-        <v>0.1037100009776407</v>
+        <v>0.07309155593489598</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>168.19535</v>
       </c>
       <c r="I8">
-        <v>0.5488212317173889</v>
+        <v>0.6620593097549599</v>
       </c>
       <c r="J8">
-        <v>0.6407788047369568</v>
+        <v>0.7423861014276285</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>92.437557</v>
       </c>
       <c r="O8">
-        <v>0.2129046609025076</v>
+        <v>0.1644984167819043</v>
       </c>
       <c r="P8">
-        <v>0.2636274194501123</v>
+        <v>0.2130948424892534</v>
       </c>
       <c r="Q8">
         <v>1727.507472528883</v>
@@ -948,10 +948,10 @@
         <v>15547.56725275995</v>
       </c>
       <c r="S8">
-        <v>0.1168465982348872</v>
+        <v>0.1089077082704113</v>
       </c>
       <c r="T8">
-        <v>0.1689268627311313</v>
+        <v>0.1581986493499314</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>168.19535</v>
       </c>
       <c r="I9">
-        <v>0.5488212317173889</v>
+        <v>0.6620593097549599</v>
       </c>
       <c r="J9">
-        <v>0.6407788047369568</v>
+        <v>0.7423861014276285</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.973992333333332</v>
+        <v>5.407681</v>
       </c>
       <c r="N9">
-        <v>17.921977</v>
+        <v>16.223043</v>
       </c>
       <c r="O9">
-        <v>0.04127837818006743</v>
+        <v>0.02886992014387351</v>
       </c>
       <c r="P9">
-        <v>0.05111260727016254</v>
+        <v>0.03739872520410058</v>
       </c>
       <c r="Q9">
-        <v>334.9325771341055</v>
+        <v>303.1822661611167</v>
       </c>
       <c r="R9">
-        <v>3014.39319420695</v>
+        <v>2728.640395450051</v>
       </c>
       <c r="S9">
-        <v>0.0226544503560808</v>
+        <v>0.01911359940313371</v>
       </c>
       <c r="T9">
-        <v>0.03275187539356424</v>
+        <v>0.02776429380263542</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>168.19535</v>
       </c>
       <c r="I10">
-        <v>0.5488212317173889</v>
+        <v>0.6620593097549599</v>
       </c>
       <c r="J10">
-        <v>0.6407788047369568</v>
+        <v>0.7423861014276285</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>83.5363655</v>
+        <v>128.149857</v>
       </c>
       <c r="N10">
-        <v>167.072731</v>
+        <v>256.299714</v>
       </c>
       <c r="O10">
-        <v>0.5772095936007515</v>
+        <v>0.6841520677789258</v>
       </c>
       <c r="P10">
-        <v>0.4764833079049545</v>
+        <v>0.5908436890523912</v>
       </c>
       <c r="Q10">
-        <v>4683.476077666809</v>
+        <v>7184.736683521651</v>
       </c>
       <c r="R10">
-        <v>28100.85646600085</v>
+        <v>43108.4201011299</v>
       </c>
       <c r="S10">
-        <v>0.316784880119058</v>
+        <v>0.4529492457611441</v>
       </c>
       <c r="T10">
-        <v>0.3053204045164481</v>
+        <v>0.4386341428687227</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>168.19535</v>
       </c>
       <c r="I11">
-        <v>0.5488212317173889</v>
+        <v>0.6620593097549599</v>
       </c>
       <c r="J11">
-        <v>0.6407788047369568</v>
+        <v>0.7423861014276285</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>5.484752333333333</v>
+        <v>8.705771666666665</v>
       </c>
       <c r="N11">
-        <v>16.454257</v>
+        <v>26.117315</v>
       </c>
       <c r="O11">
-        <v>0.03789788610475406</v>
+        <v>0.04647739628270661</v>
       </c>
       <c r="P11">
-        <v>0.04692674117165327</v>
+        <v>0.06020783442131875</v>
       </c>
       <c r="Q11">
-        <v>307.5032794561056</v>
+        <v>488.0901041650278</v>
       </c>
       <c r="R11">
-        <v>2767.52951510495</v>
+        <v>4392.81093748525</v>
       </c>
       <c r="S11">
-        <v>0.02079916453149644</v>
+        <v>0.03077079290213648</v>
       </c>
       <c r="T11">
-        <v>0.03006966111817252</v>
+        <v>0.044697459471443</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.1037003333333333</v>
+        <v>0.04559766666666667</v>
       </c>
       <c r="H12">
-        <v>0.311101</v>
+        <v>0.136793</v>
       </c>
       <c r="I12">
-        <v>0.001015122201704812</v>
+        <v>0.0005384517417354892</v>
       </c>
       <c r="J12">
-        <v>0.001185210690619401</v>
+        <v>0.0006037813885615125</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>18.91686333333334</v>
+        <v>14.23612</v>
       </c>
       <c r="N12">
-        <v>56.75059</v>
+        <v>42.70836</v>
       </c>
       <c r="O12">
-        <v>0.1307094812119195</v>
+        <v>0.07600219901258977</v>
       </c>
       <c r="P12">
-        <v>0.1618499242031174</v>
+        <v>0.09845490883293605</v>
       </c>
       <c r="Q12">
-        <v>1.961685033287778</v>
+        <v>0.6491338543866667</v>
       </c>
       <c r="R12">
-        <v>17.65516529959</v>
+        <v>5.84220468948</v>
       </c>
       <c r="S12">
-        <v>0.0001326860963515374</v>
+        <v>4.092351643405624E-05</v>
       </c>
       <c r="T12">
-        <v>0.0001918262604414746</v>
+        <v>5.944524156584725E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.1037003333333333</v>
+        <v>0.04559766666666667</v>
       </c>
       <c r="H13">
-        <v>0.311101</v>
+        <v>0.136793</v>
       </c>
       <c r="I13">
-        <v>0.001015122201704812</v>
+        <v>0.0005384517417354892</v>
       </c>
       <c r="J13">
-        <v>0.001185210690619401</v>
+        <v>0.0006037813885615125</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>92.437557</v>
       </c>
       <c r="O13">
-        <v>0.2129046609025076</v>
+        <v>0.1644984167819043</v>
       </c>
       <c r="P13">
-        <v>0.2636274194501123</v>
+        <v>0.2130948424892534</v>
       </c>
       <c r="Q13">
-        <v>3.195268491139666</v>
+        <v>1.404978970522333</v>
       </c>
       <c r="R13">
-        <v>28.75741642025699</v>
+        <v>12.644810734701</v>
       </c>
       <c r="S13">
-        <v>0.0002161242481285698</v>
+        <v>8.857445902894681E-05</v>
       </c>
       <c r="T13">
-        <v>0.0003124540358726782</v>
+        <v>0.0001286626998934582</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.1037003333333333</v>
+        <v>0.04559766666666667</v>
       </c>
       <c r="H14">
-        <v>0.311101</v>
+        <v>0.136793</v>
       </c>
       <c r="I14">
-        <v>0.001015122201704812</v>
+        <v>0.0005384517417354892</v>
       </c>
       <c r="J14">
-        <v>0.001185210690619401</v>
+        <v>0.0006037813885615125</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>5.973992333333332</v>
+        <v>5.407681</v>
       </c>
       <c r="N14">
-        <v>17.921977</v>
+        <v>16.223043</v>
       </c>
       <c r="O14">
-        <v>0.04127837818006743</v>
+        <v>0.02886992014387351</v>
       </c>
       <c r="P14">
-        <v>0.05111260727016254</v>
+        <v>0.03739872520410058</v>
       </c>
       <c r="Q14">
-        <v>0.6195049962974443</v>
+        <v>0.2465776356776667</v>
       </c>
       <c r="R14">
-        <v>5.575544966676999</v>
+        <v>2.219198721099</v>
       </c>
       <c r="S14">
-        <v>4.19025981409539E-05</v>
+        <v>1.554505878523318E-05</v>
       </c>
       <c r="T14">
-        <v>6.057920856202758E-05</v>
+        <v>2.258065423416229E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.1037003333333333</v>
+        <v>0.04559766666666667</v>
       </c>
       <c r="H15">
-        <v>0.311101</v>
+        <v>0.136793</v>
       </c>
       <c r="I15">
-        <v>0.001015122201704812</v>
+        <v>0.0005384517417354892</v>
       </c>
       <c r="J15">
-        <v>0.001185210690619401</v>
+        <v>0.0006037813885615125</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>83.5363655</v>
+        <v>128.149857</v>
       </c>
       <c r="N15">
-        <v>167.072731</v>
+        <v>256.299714</v>
       </c>
       <c r="O15">
-        <v>0.5772095936007515</v>
+        <v>0.6841520677789258</v>
       </c>
       <c r="P15">
-        <v>0.4764833079049545</v>
+        <v>0.5908436890523912</v>
       </c>
       <c r="Q15">
-        <v>8.662748947805166</v>
+        <v>5.843334462867</v>
       </c>
       <c r="R15">
-        <v>51.97649368683099</v>
+        <v>35.060006777202</v>
       </c>
       <c r="S15">
-        <v>0.0005859382735011343</v>
+        <v>0.0003683828725074991</v>
       </c>
       <c r="T15">
-        <v>0.000564733110430648</v>
+        <v>0.0003567404229988592</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.1037003333333333</v>
+        <v>0.04559766666666667</v>
       </c>
       <c r="H16">
-        <v>0.311101</v>
+        <v>0.136793</v>
       </c>
       <c r="I16">
-        <v>0.001015122201704812</v>
+        <v>0.0005384517417354892</v>
       </c>
       <c r="J16">
-        <v>0.001185210690619401</v>
+        <v>0.0006037813885615125</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>5.484752333333333</v>
+        <v>8.705771666666665</v>
       </c>
       <c r="N16">
-        <v>16.454257</v>
+        <v>26.117315</v>
       </c>
       <c r="O16">
-        <v>0.03789788610475406</v>
+        <v>0.04647739628270661</v>
       </c>
       <c r="P16">
-        <v>0.04692674117165327</v>
+        <v>0.06020783442131875</v>
       </c>
       <c r="Q16">
-        <v>0.5687706452174444</v>
+        <v>0.3969628745327777</v>
       </c>
       <c r="R16">
-        <v>5.118935806956999</v>
+        <v>3.572665870795</v>
       </c>
       <c r="S16">
-        <v>3.847098558261613E-05</v>
+        <v>2.502583497975393E-05</v>
       </c>
       <c r="T16">
-        <v>5.561807531257307E-05</v>
+        <v>3.635236986918546E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>43.98073100000001</v>
+        <v>27.488287</v>
       </c>
       <c r="H17">
-        <v>87.96146200000001</v>
+        <v>54.976574</v>
       </c>
       <c r="I17">
-        <v>0.4305272225287646</v>
+        <v>0.3246024872429512</v>
       </c>
       <c r="J17">
-        <v>0.3351093860994091</v>
+        <v>0.2426573888143015</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>18.91686333333334</v>
+        <v>14.23612</v>
       </c>
       <c r="N17">
-        <v>56.75059</v>
+        <v>42.70836</v>
       </c>
       <c r="O17">
-        <v>0.1307094812119195</v>
+        <v>0.07600219901258977</v>
       </c>
       <c r="P17">
-        <v>0.1618499242031174</v>
+        <v>0.09845490883293605</v>
       </c>
       <c r="Q17">
-        <v>831.9774776270968</v>
+        <v>391.32655232644</v>
       </c>
       <c r="R17">
-        <v>4991.864865762581</v>
+        <v>2347.95931395864</v>
       </c>
       <c r="S17">
-        <v>0.05627398990434344</v>
+        <v>0.02467050283542041</v>
       </c>
       <c r="T17">
-        <v>0.05423742873994258</v>
+        <v>0.02389081109335037</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>43.98073100000001</v>
+        <v>27.488287</v>
       </c>
       <c r="H18">
-        <v>87.96146200000001</v>
+        <v>54.976574</v>
       </c>
       <c r="I18">
-        <v>0.4305272225287646</v>
+        <v>0.3246024872429512</v>
       </c>
       <c r="J18">
-        <v>0.3351093860994091</v>
+        <v>0.2426573888143015</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>92.437557</v>
       </c>
       <c r="O18">
-        <v>0.2129046609025076</v>
+        <v>0.1644984167819043</v>
       </c>
       <c r="P18">
-        <v>0.2636274194501123</v>
+        <v>0.2130948424892534</v>
       </c>
       <c r="Q18">
-        <v>1355.157109571389</v>
+        <v>846.983365464953</v>
       </c>
       <c r="R18">
-        <v>8130.942657428335</v>
+        <v>5081.900192789718</v>
       </c>
       <c r="S18">
-        <v>0.09166125232178506</v>
+        <v>0.05339659523493375</v>
       </c>
       <c r="T18">
-        <v>0.08834402269089854</v>
+        <v>0.05170903804823708</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>43.98073100000001</v>
+        <v>27.488287</v>
       </c>
       <c r="H19">
-        <v>87.96146200000001</v>
+        <v>54.976574</v>
       </c>
       <c r="I19">
-        <v>0.4305272225287646</v>
+        <v>0.3246024872429512</v>
       </c>
       <c r="J19">
-        <v>0.3351093860994091</v>
+        <v>0.2426573888143015</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>5.973992333333332</v>
+        <v>5.407681</v>
       </c>
       <c r="N19">
-        <v>17.921977</v>
+        <v>16.223043</v>
       </c>
       <c r="O19">
-        <v>0.04127837818006743</v>
+        <v>0.02886992014387351</v>
       </c>
       <c r="P19">
-        <v>0.05111260727016254</v>
+        <v>0.03739872520410058</v>
       </c>
       <c r="Q19">
-        <v>262.7405498083957</v>
+        <v>148.647887332447</v>
       </c>
       <c r="R19">
-        <v>1576.443298850374</v>
+        <v>891.887323994682</v>
       </c>
       <c r="S19">
-        <v>0.01777146550835639</v>
+        <v>0.009371247885206718</v>
       </c>
       <c r="T19">
-        <v>0.01712831444424437</v>
+        <v>0.009075077003010652</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>43.98073100000001</v>
+        <v>27.488287</v>
       </c>
       <c r="H20">
-        <v>87.96146200000001</v>
+        <v>54.976574</v>
       </c>
       <c r="I20">
-        <v>0.4305272225287646</v>
+        <v>0.3246024872429512</v>
       </c>
       <c r="J20">
-        <v>0.3351093860994091</v>
+        <v>0.2426573888143015</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>83.5363655</v>
+        <v>128.149857</v>
       </c>
       <c r="N20">
-        <v>167.072731</v>
+        <v>256.299714</v>
       </c>
       <c r="O20">
-        <v>0.5772095936007515</v>
+        <v>0.6841520677789258</v>
       </c>
       <c r="P20">
-        <v>0.4764833079049545</v>
+        <v>0.5908436890523912</v>
       </c>
       <c r="Q20">
-        <v>3673.990419773181</v>
+        <v>3522.620048224959</v>
       </c>
       <c r="R20">
-        <v>14695.96167909272</v>
+        <v>14090.48019289983</v>
       </c>
       <c r="S20">
-        <v>0.2485044431498885</v>
+        <v>0.2220774628534474</v>
       </c>
       <c r="T20">
-        <v>0.159674028798645</v>
+        <v>0.1433725867828623</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>43.98073100000001</v>
+        <v>27.488287</v>
       </c>
       <c r="H21">
-        <v>87.96146200000001</v>
+        <v>54.976574</v>
       </c>
       <c r="I21">
-        <v>0.4305272225287646</v>
+        <v>0.3246024872429512</v>
       </c>
       <c r="J21">
-        <v>0.3351093860994091</v>
+        <v>0.2426573888143015</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>5.484752333333333</v>
+        <v>8.705771666666665</v>
       </c>
       <c r="N21">
-        <v>16.454257</v>
+        <v>26.117315</v>
       </c>
       <c r="O21">
-        <v>0.03789788610475406</v>
+        <v>0.04647739628270661</v>
       </c>
       <c r="P21">
-        <v>0.04692674117165327</v>
+        <v>0.06020783442131875</v>
       </c>
       <c r="Q21">
-        <v>241.2234169739557</v>
+        <v>239.3067501298016</v>
       </c>
       <c r="R21">
-        <v>1447.340501843734</v>
+        <v>1435.84050077881</v>
       </c>
       <c r="S21">
-        <v>0.01631607164439123</v>
+        <v>0.01508667843394286</v>
       </c>
       <c r="T21">
-        <v>0.01572559142567859</v>
+        <v>0.01460987588684103</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G22">
-        <v>0.03667633333333333</v>
+        <v>0.027723</v>
       </c>
       <c r="H22">
-        <v>0.110029</v>
+        <v>0.08316900000000001</v>
       </c>
       <c r="I22">
-        <v>0.0003590244992185133</v>
+        <v>0.0003273741559027063</v>
       </c>
       <c r="J22">
-        <v>0.0004191807389823952</v>
+        <v>0.0003670940348210247</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>18.91686333333334</v>
+        <v>14.23612</v>
       </c>
       <c r="N22">
-        <v>56.75059</v>
+        <v>42.70836</v>
       </c>
       <c r="O22">
-        <v>0.1307094812119195</v>
+        <v>0.07600219901258977</v>
       </c>
       <c r="P22">
-        <v>0.1618499242031174</v>
+        <v>0.09845490883293605</v>
       </c>
       <c r="Q22">
-        <v>0.6938011852344445</v>
+        <v>0.39466795476</v>
       </c>
       <c r="R22">
-        <v>6.24421066711</v>
+        <v>3.55201159284</v>
       </c>
       <c r="S22">
-        <v>4.692790603522107E-05</v>
+        <v>2.488115574849607E-05</v>
       </c>
       <c r="T22">
-        <v>6.784437083170743E-05</v>
+        <v>3.614220973141863E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G23">
-        <v>0.03667633333333333</v>
+        <v>0.027723</v>
       </c>
       <c r="H23">
-        <v>0.110029</v>
+        <v>0.08316900000000001</v>
       </c>
       <c r="I23">
-        <v>0.0003590244992185133</v>
+        <v>0.0003273741559027063</v>
       </c>
       <c r="J23">
-        <v>0.0004191807389823952</v>
+        <v>0.0003670940348210247</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>92.437557</v>
       </c>
       <c r="O23">
-        <v>0.2129046609025076</v>
+        <v>0.1644984167819043</v>
       </c>
       <c r="P23">
-        <v>0.2636274194501123</v>
+        <v>0.2130948424892534</v>
       </c>
       <c r="Q23">
-        <v>1.130090217683666</v>
+        <v>0.854215464237</v>
       </c>
       <c r="R23">
-        <v>10.170811959153</v>
+        <v>7.687939178133001</v>
       </c>
       <c r="S23">
-        <v>7.643798926181016E-05</v>
+        <v>5.38525303413075E-05</v>
       </c>
       <c r="T23">
-        <v>0.0001105075365011199</v>
+        <v>7.822584552893074E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G24">
-        <v>0.03667633333333333</v>
+        <v>0.027723</v>
       </c>
       <c r="H24">
-        <v>0.110029</v>
+        <v>0.08316900000000001</v>
       </c>
       <c r="I24">
-        <v>0.0003590244992185133</v>
+        <v>0.0003273741559027063</v>
       </c>
       <c r="J24">
-        <v>0.0004191807389823952</v>
+        <v>0.0003670940348210247</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>5.973992333333332</v>
+        <v>5.407681</v>
       </c>
       <c r="N24">
-        <v>17.921977</v>
+        <v>16.223043</v>
       </c>
       <c r="O24">
-        <v>0.04127837818006743</v>
+        <v>0.02886992014387351</v>
       </c>
       <c r="P24">
-        <v>0.05111260727016254</v>
+        <v>0.03739872520410058</v>
       </c>
       <c r="Q24">
-        <v>0.2191041341481111</v>
+        <v>0.149917140363</v>
       </c>
       <c r="R24">
-        <v>1.971937207333</v>
+        <v>1.349254263267</v>
       </c>
       <c r="S24">
-        <v>1.481994905465112E-05</v>
+        <v>9.451265738079126E-06</v>
       </c>
       <c r="T24">
-        <v>2.142542048682368E-05</v>
+        <v>1.372884893233603E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G25">
-        <v>0.03667633333333333</v>
+        <v>0.027723</v>
       </c>
       <c r="H25">
-        <v>0.110029</v>
+        <v>0.08316900000000001</v>
       </c>
       <c r="I25">
-        <v>0.0003590244992185133</v>
+        <v>0.0003273741559027063</v>
       </c>
       <c r="J25">
-        <v>0.0004191807389823952</v>
+        <v>0.0003670940348210247</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>83.5363655</v>
+        <v>128.149857</v>
       </c>
       <c r="N25">
-        <v>167.072731</v>
+        <v>256.299714</v>
       </c>
       <c r="O25">
-        <v>0.5772095936007515</v>
+        <v>0.6841520677789258</v>
       </c>
       <c r="P25">
-        <v>0.4764833079049545</v>
+        <v>0.5908436890523912</v>
       </c>
       <c r="Q25">
-        <v>3.063807586533167</v>
+        <v>3.552698485611</v>
       </c>
       <c r="R25">
-        <v>18.382845519199</v>
+        <v>21.316190913666</v>
       </c>
       <c r="S25">
-        <v>0.0002072323852866314</v>
+        <v>0.0002239737056982169</v>
       </c>
       <c r="T25">
-        <v>0.000199732625120375</v>
+        <v>0.0002168951937627812</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G26">
-        <v>0.03667633333333333</v>
+        <v>0.027723</v>
       </c>
       <c r="H26">
-        <v>0.110029</v>
+        <v>0.08316900000000001</v>
       </c>
       <c r="I26">
-        <v>0.0003590244992185133</v>
+        <v>0.0003273741559027063</v>
       </c>
       <c r="J26">
-        <v>0.0004191807389823952</v>
+        <v>0.0003670940348210247</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>5.484752333333333</v>
+        <v>8.705771666666665</v>
       </c>
       <c r="N26">
-        <v>16.454257</v>
+        <v>26.117315</v>
       </c>
       <c r="O26">
-        <v>0.03789788610475406</v>
+        <v>0.04647739628270661</v>
       </c>
       <c r="P26">
-        <v>0.04692674117165327</v>
+        <v>0.06020783442131875</v>
       </c>
       <c r="Q26">
-        <v>0.2011606048281111</v>
+        <v>0.241350107915</v>
       </c>
       <c r="R26">
-        <v>1.810445443453</v>
+        <v>2.172150971235</v>
       </c>
       <c r="S26">
-        <v>1.360626958019958E-05</v>
+        <v>1.521549837660666E-05</v>
       </c>
       <c r="T26">
-        <v>1.967078604236921E-05</v>
+        <v>2.210193686555807E-05</v>
       </c>
     </row>
   </sheetData>
